--- a/biology/Zoologie/Halgerda/Halgerda.xlsx
+++ b/biology/Zoologie/Halgerda/Halgerda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halgerda est un genre de mollusques nudibranches de la famille des Discodorididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Halgerda se rencontrent dans la zone Indo-Pacifique tropicale[2]. Le genre est ainsi présent dans les Îles Ryukyu, aux Philippines, à Guam, dans les Îles Mariannes du Nord, aux Fidji, aux Tonga, en Papouasie Nouvelle-Guinée, à Vanuatu, en Mer de corail, en Nouvelle-Calédonie, en Australie, en Indonésie et en Afrique du sud[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Halgerda se rencontrent dans la zone Indo-Pacifique tropicale. Le genre est ainsi présent dans les Îles Ryukyu, aux Philippines, à Guam, dans les Îles Mariannes du Nord, aux Fidji, aux Tonga, en Papouasie Nouvelle-Guinée, à Vanuatu, en Mer de corail, en Nouvelle-Calédonie, en Australie, en Indonésie et en Afrique du sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Helgerda est généralement considéré comme un clade d'eaux peu profondes associé principalement à un environnement récifal et sub-littoral mais certaines espèces comme Halgerda abyssicola peuvent être observées jusqu'à 420 m de profondeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Helgerda est généralement considéré comme un clade d'eaux peu profondes associé principalement à un environnement récifal et sub-littoral mais certaines espèces comme Halgerda abyssicola peuvent être observées jusqu'à 420 m de profondeur.
 </t>
         </is>
       </c>
@@ -573,13 +589,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le corps est un peu déprimé[3] et rigide[4],[3], abrupt[2] et lisse[4],[2] sur le dessus[5]. Il est gélatineux mais ferme[2] et soulevé en crêtes tuberculeuses[4]. L'animal ne présente pas de tentacules buccaux[5],[3]. Le pied présente deux lèvres[4] et est assez étroit[5],[3].
-Les rhinophores sont rétractables[5] avec des tiges rhinophorales longues par rapport au club[2]. L'ouverture branchiale est transversalement ovale[5]. Les ouvertures des rhinophores et des poches branchiales sont lisses[2]. Les branchies, peu nombreuses[4], sont grandes[2], perfoliées et tripennées[5].
-La mâchoire n'est pas armée[5]. La langue présente un rachis nu et étroit avec de nombreuses plaques dentées en forme de crochet dont la partie la plus externe est à bout pointu[5]. Le sac radulaire est allongé et incurvé[4],[2].
-La prostate est grosse et le pénis n'est pas armé[5],[3] de même que le vagin[4].
-De plus, la phylogénie de Halgerda proposée par Fahey &amp; Gosliner en 1999[6] suggère que tous les membres du genre se partagent les six caractères suivants: la présence de crêtes dorsales, une couleur des crêtes orange ou jaune ou blanche différente de la couleur de fond, le club des rhinophores blanc, la présence de glandes branchiales, une radula rectangulaire et une prostate en deux parties bien différenciées (sauf chez Halgerda dalanghita)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps est un peu déprimé et rigide abrupt et lisse, sur le dessus. Il est gélatineux mais ferme et soulevé en crêtes tuberculeuses. L'animal ne présente pas de tentacules buccaux,. Le pied présente deux lèvres et est assez étroit,.
+Les rhinophores sont rétractables avec des tiges rhinophorales longues par rapport au club. L'ouverture branchiale est transversalement ovale. Les ouvertures des rhinophores et des poches branchiales sont lisses. Les branchies, peu nombreuses, sont grandes, perfoliées et tripennées.
+La mâchoire n'est pas armée. La langue présente un rachis nu et étroit avec de nombreuses plaques dentées en forme de crochet dont la partie la plus externe est à bout pointu. Le sac radulaire est allongé et incurvé,.
+La prostate est grosse et le pénis n'est pas armé, de même que le vagin.
+De plus, la phylogénie de Halgerda proposée par Fahey &amp; Gosliner en 1999 suggère que tous les membres du genre se partagent les six caractères suivants: la présence de crêtes dorsales, une couleur des crêtes orange ou jaune ou blanche différente de la couleur de fond, le club des rhinophores blanc, la présence de glandes branchiales, une radula rectangulaire et une prostate en deux parties bien différenciées (sauf chez Halgerda dalanghita).
 </t>
         </is>
       </c>
@@ -608,26 +626,28 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (1er novembre 2019)[7] :
-Halgerda abyssicola Fahey &amp; Gosliner, 2000[2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (1er novembre 2019) :
+Halgerda abyssicola Fahey &amp; Gosliner, 2000
 Halgerda albocristata Gosliner &amp; Fahey, 1998
 Halgerda aurantiomaculata (Allan, 1932)
-Halgerda azteca Fahey &amp; Gosliner, 2000[2]
+Halgerda azteca Fahey &amp; Gosliner, 2000
 Halgerda bacalusia Fahey &amp; Gosliner, 1999
 Halgerda batangas Carlson &amp; Hoff, 2000
-Halgerda brunneomaculata Carlson &amp; Hoff, 1993[8]
+Halgerda brunneomaculata Carlson &amp; Hoff, 1993
 Halgerda brycei Fahey &amp; Gosliner, 2001
 Halgerda carlsoni Rudman, 1978
 Halgerda dalanghita Fahey &amp; Gosliner, 1999
 Halgerda diaphana Fahey &amp; Gosliner, 1999
 Halgerda dichromis Fahey &amp; Gosliner, 1999
 Halgerda elegans Bergh, 1905
-Halgerda fibra Fahey &amp; Gosliner, 2000[2]
+Halgerda fibra Fahey &amp; Gosliner, 2000
 Halgerda formosa Bergh, 1880
 Halgerda graphica Basedow &amp; Hedley, 1905
-Halgerda guahan Carlson &amp; Hoff, 1993[8]
+Halgerda guahan Carlson &amp; Hoff, 1993
 Halgerda gunnessi Fahey &amp; Gosliner, 2001
 Halgerda indotessellata Tibiriçá, Pola &amp; Cervera, 2018
 Halgerda iota Yonow, 1994
@@ -640,13 +660,13 @@
 Halgerda mozambiquensis Tibiriçá, Pola &amp; Cervera, 2018
 Halgerda nuarrensis Tibiriçá, Pola &amp; Cervera, 2018
 Halgerda okinawa Carlson &amp; Hoff, 2000
-Halgerda onna Fahey &amp; Gosliner, 2001[9]
+Halgerda onna Fahey &amp; Gosliner, 2001
 Halgerda orientalis Lin, 1991
-Halgerda orstomi Fahey &amp; Gosliner, 2000[2]
-Halgerda paliensis (Bertsch &amp; Johnson, 1982)[10],[9]
-Halgerda punctata Farran, 1902[4]
+Halgerda orstomi Fahey &amp; Gosliner, 2000
+Halgerda paliensis (Bertsch &amp; Johnson, 1982),
+Halgerda punctata Farran, 1902
 Halgerda stricklandi Fahey &amp; Gosliner, 1999
-Halgerda terramtuentis Bertsch &amp; Johnson, 1982[10]
+Halgerda terramtuentis Bertsch &amp; Johnson, 1982
 Halgerda tessellata (Bergh, 1880)
 Halgerda theobroma Fahey &amp; Gosliner, 2001
 Halgerda toliara Fahey &amp; Gosliner, 1999
@@ -696,9 +716,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergh, L. S. R. 1880. Beiträge zur Kenntniss der japanischen Nudibranchien. I. Verhandlungen der königlich-kaiserlich Zoologisch-botanischen Gesellschaft in Wien (Abhandlungen), 30: 155-200, pls. 1-5, [190]. (BHL)</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bergh, L. S. R. 1880. Beiträge zur Kenntniss der japanischen Nudibranchien. I. Verhandlungen der königlich-kaiserlich Zoologisch-botanischen Gesellschaft in Wien (Abhandlungen), 30: 155-200, pls. 1-5, . (BHL)</t>
         </is>
       </c>
     </row>
@@ -726,9 +748,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Halgerda a été érigé par le zoologiste danois Rudolph Bergh en 1880 avec pour espèce type Halgerda formosa Bergh, 1880 par désignation subséquente[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Halgerda a été érigé par le zoologiste danois Rudolph Bergh en 1880 avec pour espèce type Halgerda formosa Bergh, 1880 par désignation subséquente.
 </t>
         </is>
       </c>
